--- a/網頁自動化/訓練課程.xlsx
+++ b/網頁自動化/訓練課程.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,25 +460,35 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>報名日期</t>
+          <t>報名開始</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>報名結束</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>招生狀態</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>預訂訓練 起迄日期</t>
-        </is>
-      </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>訓練開始</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>訓練結束</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>繳費方式</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>網址</t>
         </is>
@@ -487,80 +497,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>行動通訊電子商務實務班第05期 (中華民國全國商業總會) ●「另開新視窗」</t>
+          <t>商業智慧大數據資料圖形化設計班第01期  (社團法人新竹市職訓教育協會)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>143691</t>
+          <t>143956</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1,324</t>
+          <t>1,620</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5,296</t>
+          <t>6,480</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(學) 臺北市
-(術) 臺北市
-(整班為遠距教學)</t>
+          <t xml:space="preserve">
+(術) 新竹市 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>111/10/03 12:00:00
-|
-111/12/19 18:00:00</t>
+          <t xml:space="preserve">
+111/12/12 12:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t xml:space="preserve">112/01/16 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>接受以備取身份報名</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>111/12/22
-|
-112/02/13</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>報名時應先繳全額訓練費用</t>
+          <t xml:space="preserve">
+112/01/12</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143691</t>
+          <t>112/03/14</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143956</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>綠能科技太陽能光電技能A班第04期 (社團法人台灣多元訓練推廣協會) ●「另開新視窗」</t>
+          <t>Node-Red物聯網線性規劃程式設計班第01期  (北訓資訊有限公司附設職業訓練中心)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>143854</t>
+          <t>143818</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -570,69 +587,77 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1,916</t>
+          <t>1,818</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7,664</t>
+          <t>7,272</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(學) 嘉義市
-(術) 嘉義市</t>
+          <t xml:space="preserve">
+(學) 臺南市 (術) 臺南市 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>111/06/09 12:00:00
-|
-111/12/21 18:00:00</t>
+          <t xml:space="preserve">
+111/12/13 12:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>接受以備取身份報名</t>
+          <t xml:space="preserve">112/01/10 18:00:00            </t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>111/12/24
-|
-112/02/18</t>
+          <t>招生中</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>報名時應先繳全額訓練費用</t>
+          <t xml:space="preserve">
+112/01/13</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143854</t>
+          <t>112/04/28</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143818</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FDM型3D列印機DIY組裝開發實務班第02期 (財團法人塑膠工業技術發展中心) ●「另開新視窗」</t>
+          <t>越南語進階班第03期  (國立空中大學)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>145194</t>
+          <t>143595</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -642,326 +667,367 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2,118</t>
+          <t>1,140</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8,472</t>
+          <t>4,560</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(學) 臺南市
-(術) 臺南市</t>
+          <t xml:space="preserve">
+(學) 新北市 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>111/11/24 12:00:00
-|
-111/12/21 18:00:00</t>
+          <t xml:space="preserve">
+111/12/29 12:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t xml:space="preserve">112/01/30 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>招生中</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>111/12/24
-|
-112/02/11</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>報名時應先繳全額訓練費用</t>
+          <t xml:space="preserve">
+112/01/29</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=145194</t>
+          <t>112/04/30</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143595</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>醫療器材法規實務策略解析B班第08期 (中華民國醫療器材商業同業公會全國聯合會) ●「另開新視窗」</t>
+          <t>Solidworks智慧機構設計繪圖班第01期  (社團法人台灣產業人才培育協會)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>145487</t>
+          <t>143794</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>1,656</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3,840</t>
+          <t>6,624</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(學) 臺南市</t>
+          <t xml:space="preserve">
+(術) 臺南市 (整班為實體教學) </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>111/11/24 12:00:00
-|
-111/12/21 18:00:00</t>
+          <t xml:space="preserve">
+111/07/02 12:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t xml:space="preserve">112/01/30 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>招生中</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>111/12/24
-|
-112/02/11</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>報名時應先繳全額訓練費用</t>
+          <t xml:space="preserve">
+112/01/31</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=145487</t>
+          <t>112/03/23</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143794</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Power BI 商業數據分析實作班第01期 (社團法人台灣多元技藝職能協會) ●「另開新視窗」</t>
+          <t>工業繪圖與3D列印實作班第01期  (社團法人台灣產訓技能推廣協會)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>146472</t>
+          <t>143789</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1,030</t>
+          <t>1,592</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4,120</t>
+          <t>6,368</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(學) 臺中市
-(術) 臺中市</t>
+          <t xml:space="preserve">
+(學) 嘉義市 (術) 嘉義市 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>111/08/03 12:00:00
-|
-111/12/21 18:00:00</t>
+          <t xml:space="preserve">
+111/12/30 12:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>接受以備取身份報名</t>
+          <t xml:space="preserve">112/01/30 18:00:00            </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>111/12/24
-|
-112/02/11</t>
+          <t>招生中</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>報名時應先繳全額訓練費用</t>
+          <t xml:space="preserve">
+112/02/02</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=146472</t>
+          <t>112/03/28</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143789</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>光固化3D列印機DIY組裝開發實務班第02期 (財團法人塑膠工業技術發展中心) ●「另開新視窗」</t>
+          <t>BIM營造施工模型軟體實務班第04期  (高雄市土木技師公會)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>145195</t>
+          <t>143509</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2,048</t>
+          <t>1,744</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8,192</t>
+          <t>6,976</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(學) 臺南市
-(術) 臺南市</t>
+          <t xml:space="preserve">
+(術) 高雄市 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>111/11/25 12:00:00
-|
-111/12/22 18:00:00</t>
+          <t xml:space="preserve">
+112/01/04 12:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t xml:space="preserve">112/02/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>招生中</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>111/12/25
-|
-112/02/05</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>報名時應先繳全額訓練費用</t>
+          <t xml:space="preserve">
+112/02/04</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=145195</t>
+          <t>112/03/11</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143509</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Raspberry 單板電腦藍芽通訊設計班第01期 (北訓資訊有限公司附設職業訓練中心) ●「另開新視窗」</t>
+          <t>Python資料分析實作班第01期  (社團法人高雄市企業管理交流協會)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>143817</t>
+          <t>143682</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1,818</t>
+          <t>1,152</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7,272</t>
+          <t>4,608</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(學) 臺南市
-(術) 臺南市</t>
+          <t xml:space="preserve">
+(學) 高雄市 (術) 高雄市 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>111/11/14 12:00:00
-|
-111/12/23 18:00:00</t>
+          <t xml:space="preserve">
+112/01/04 12:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t xml:space="preserve">112/02/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>招生中</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>111/12/26
-|
-112/02/22</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>報名時應先繳全額訓練費用</t>
+          <t xml:space="preserve">
+112/02/04</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143817</t>
+          <t>112/03/11</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143682</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Python與物聯網MicroPython應用實務班第01期 (北訓電腦有限公司附設職業訓練中心) ●「另開新視窗」</t>
+          <t>物聯網基礎實務班第01期  (北訓資訊有限公司附設職業訓練中心)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>143762</t>
+          <t>143819</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -971,119 +1037,4035 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>1,818</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6,416</t>
+          <t>7,272</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(術) 高雄市
-(整班為遠距教學)</t>
+          <t xml:space="preserve">
+(學) 臺南市 (術) 臺南市 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>111/10/17 12:00:00
-|
-111/12/26 18:00:00</t>
+          <t xml:space="preserve">
+112/01/04 12:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t xml:space="preserve">112/02/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>招生中</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>111/12/29
-|
-112/02/21</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>報名時應先繳全額訓練費用</t>
+          <t xml:space="preserve">
+112/02/04</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143762</t>
+          <t>112/03/25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143819</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>建築環境規劃BIM技術應用進階學士學分班第01期 (國立高雄科技大學) ●「另開新視窗」</t>
+          <t>企業大數據分析與產業智慧基礎班第02期  (財團法人中國生產力中心附設中區服務處)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>144006</t>
+          <t>143845</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,580</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6,320</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺中市 (術) 臺中市 </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/04 12:00:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>接受以備取身份報名</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/04</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>112/03/11</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143845</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>二輪電動車維修保養實務B班第06期  (社團法人台灣多元訓練推廣協會)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>143858</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1,964</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7,856</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 嘉義市 (術) 嘉義市 </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/04 12:00:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/04</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>112/03/18</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143858</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>智慧機械-SolidWorks 3D製圖塑膠模具設計班第01期  (社團法人新竹市職訓教育協會)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>143930</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,620</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6,480</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 新竹市 </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/04 12:00:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/04</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>112/04/15</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143930</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>泰語商旅會話進階班第02期  (國立空中大學)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>143580</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1,120</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4,480</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 新北市 </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/06 12:00:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/02 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/05</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>112/04/30</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143580</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Raspberry Pi 樹莓派GPIO與Python應用班第03期  (社團法人高雄市企業管理交流協會)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>143681</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,800</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7,200</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 高雄市 (術) 高雄市 </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/05 12:00:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/02 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/05</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>112/03/12</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143681</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3D列印設計與成品製造班第01期  (社團法人台灣創造活動發展協會)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>143715</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1,882</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7,528</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 桃園市 (術) 桃園市 </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/05/19 12:00:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/02 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/05</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>112/04/16</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143715</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Linux虛擬化與雲端系統管理實務班第03期  (全國勞工聯合總工會)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>143731</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,714</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6,856</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 臺北市 (整班為遠距教學) </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/08/18 12:00:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/02 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>接受以備取身份報名</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/05</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>112/03/26</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143731</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>智慧大數據分析Power BI Desktop實務活用班第01期  (財團法人中國生產力中心附設台南服務處)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>143769</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1,400</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5,600</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺南市 (術) 臺南市 </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/06 12:00:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/02 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/05</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>112/03/19</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143769</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Solid Edge 電腦輔助機械製圖研析班第01期  (財團法人中國生產力中心附設中區服務處)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>143843</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,200</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8,800</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺中市 (術) 臺中市 </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/10/05 12:00:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/02 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/05</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>112/04/23</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143843</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Python程式與AI文字識別班第01期  (中原大學)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>143876</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,512</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6,048</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 桃園市 </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/05 12:00:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/02 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/05</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>112/03/26</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143876</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Python Django網站框架與資料庫於伺服器端程式設計實務班第01期  (北訓電腦有限公司附設職業訓練中心)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>143763</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,368</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5,472</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 高雄市 </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/06 12:00:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/03 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/06</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>112/03/20</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143763</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Python程式與區塊鏈NFT應用班第01期  (中原大學)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>143877</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1,512</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6,048</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 桃園市 </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/06 12:00:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/03 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/06</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>112/03/29</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143877</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>台灣AI行動計畫-人工智能PYTHON影像處理進階班第01期  (社團法人新竹市職訓教育協會)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>143954</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1,620</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6,480</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 新竹市 </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/08 12:00:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/05 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/08</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>112/03/15</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143954</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>企業營運與Linux安全應用實務班第03期  (全國勞工聯合總工會)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>143734</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1,714</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6,856</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 臺北市 </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/10/12 12:00:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/08 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/11</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>112/04/22</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143734</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SolidWorks進階模型建構曲面班第01期  (南臺學校財團法人南臺科技大學)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>143773</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1,738</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6,952</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 臺南市 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/10/19 12:00:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/08 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/11</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>112/03/18</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143773</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3D列印珠寶建模設計班第03期  (社團法人中華民國珠寶金飾研究會)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>143805</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2,284</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9,136</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺南市 (術) 臺南市 </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/10/27 12:00:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/08 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/11</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>112/03/25</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143805</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Excel增益集和數據圖像化實務班第01期  (中原大學)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>143878</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1,512</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6,048</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 桃園市 </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/12 12:00:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/08 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/11</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>112/04/15</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143878</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Python人工智慧商業應用設計實務班第01期  (社團法人台灣創造活動發展協會)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>143536</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1,728</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6,912</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 高雄市 (術) 高雄市 </t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/08/18 12:00:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/09 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/12</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>112/04/23</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143536</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>物聯網Webduino雲端智慧環境監測實務班第01期  (社團法人中華勞動力職能發展協會)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>143697</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1,154</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4,616</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺中市 (術) 臺中市 </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/07/14 12:00:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/09 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/12</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>112/03/26</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143697</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3D列印進階實務班第02期  (社團法人台灣產業人才培育協會)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>143793</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1,400</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5,600</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 臺南市 (整班為實體教學) </t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/06/30 12:00:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/09 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/12</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>112/03/26</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143793</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>跨境電商經營管理實作班第02期  (中國文化大學)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>143918</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1,512</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6,048</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺北市 (術) 臺北市 </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/12 12:00:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/09 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/12</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>112/03/26</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143918</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>台灣AI行動計畫-Python深度學習程式訓練班第01期  (社團法人新竹市職訓教育協會)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>143945</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1,620</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6,480</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 新竹市 </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/12 12:00:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/09 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/12</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>112/04/02</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143945</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>數據流程自動化智能應用班第02期  (國立中興大學)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>143635</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1,536</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6,144</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 臺中市 </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/13 12:00:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/10 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/13</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>112/04/14</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143635</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>新創企業法律與稅務規劃實務班第02期  (中華民國全國商業總會)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>143692</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3,528</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺北市 </t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/13 12:00:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/10 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/13</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>112/04/17</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143692</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EXCEL VBA數據分析班第01期  (社團法人台灣產業職能發展協會)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>143783</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1,544</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6,176</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺南市 (術) 臺南市 </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/09/18 12:00:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/12 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/15</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>112/03/31</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143783</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>智慧機械-3D列印堆疊參數解析與模型製作班第02期  (社團法人新竹市職訓教育協會)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>143963</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1,816</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7,264</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 新竹市 </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/15 12:00:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/12 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/15</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>112/03/27</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143963</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Power BI商業智慧數據分析實務班第01期  (精誠資訊股份有限公司附設職業訓練中心)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>143532</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1,206</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4,824</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 高雄市 </t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/10/01 12:00:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/13 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>接受以備取身份報名</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/16</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>112/03/30</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143532</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>智慧農業物聯網環控系統規劃與設計B班第02期  (北訓資訊有限公司附設職業訓練中心)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>143820</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1,818</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7,272</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺南市 (術) 臺南市 </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/19 12:00:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/16 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/19</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>112/04/23</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143820</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>智慧機械-3D列印堆疊參數解析與模型製作班第01期  (社團法人新竹市職訓教育協會)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>143962</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1,816</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7,264</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 新竹市 (整班為遠距教學) </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/09/19 12:00:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/16 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/19</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>112/04/30</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143962</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Raspberry pico微控制板系統設計班第01期  (北訓資訊有限公司附設職業訓練中心)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>143821</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1,818</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7,272</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺南市 (術) 臺南市 </t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/30 12:00:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/17 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/20</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>112/04/19</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143821</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>電商網頁設計B班第01期  (群亞國際股份有限公司附設職業訓練中心)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>143886</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1,656</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6,624</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 臺南市 (整班為實體教學) </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/12/04 12:00:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/17 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/20</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>112/03/27</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143886</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>IOT智慧生活機器人應用碩士學分班第01期  (國立高雄科技大學)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>144005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2,256</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9,024</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 高雄市 (術) 高雄市 </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/01/30 12:00:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/22 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/25</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>112/04/29</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=144005</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>智慧機械-SolidWorks智能機械參數設計人才培訓班第01期  (社團法人新竹市職訓教育協會)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>143928</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1,620</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6,480</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 新竹市 (整班為遠距教學) </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/10/10 12:00:00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/02/27 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>接受以備取身份報名</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/02</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>112/04/25</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143928</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>元宇宙裝置端應用知能養成班第02期  (國立中興大學)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>143636</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1,440</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5,760</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺中市 (術) 臺中市 </t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/01 12:00:00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/03 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/03</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>112/04/29</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143636</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CNC銑床加工手寫程式實務班第01期  (健行學校財團法人健行科技大學)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>143566</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2,332</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9,328</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 桃園市 </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/04 12:00:00</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/04</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>112/03/26</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143566</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>物聯網樹莓派通訊程式與感測應用實務班第01期  (社團法人中華勞動力職能發展協會)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>143650</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1,144</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4,576</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 新北市 (術) 新北市 </t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/04 12:00:00</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/04</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>112/04/22</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143650</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>太陽光電維運技術班第02期  (高雄市太陽能設備裝修職業工會)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>143739</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1,996</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7,984</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 高雄市 (術) 高雄市 </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/04 12:00:00</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/04</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>112/04/08</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143739</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3D繪圖、智慧製造之3D列印與雷射雕刻技術應用班第01期  (嘉義市電腦商業同業公會)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>143792</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1,560</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6,240</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 嘉義市 (術) 嘉義市 </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/04 12:00:00</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/04</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>112/04/15</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143792</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NX CAM加工模擬訓練進階班第01期  (財團法人中國生產力中心附設中區服務處)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>143842</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2,020</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8,080</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺中市 (術) 臺中市 </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/09/15 12:00:00</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/04</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>112/04/15</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143842</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>物聯網大數據資料分析應用班第01期  (社團法人中華成人教育認證協會)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>143852</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1,544</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6,176</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 高雄市 (術) 高雄市 </t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/04 12:00:00</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/04</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>112/04/22</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143852</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>AutoCAD創意機械3D設計班第01期  (群亞國際股份有限公司附設職業訓練中心)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>143885</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1,728</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6,912</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 臺南市 </t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/10/19 12:00:00</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/04</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>112/04/29</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143885</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>AI影像辨識實戰班第01期  (社團法人中華成人教育認證協會)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>143896</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1,288</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5,152</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺南市 (術) 臺南市 </t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/04 12:00:00</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/04</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>112/04/15</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143896</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Unity遊戲程式設計實作班第01期  (崑山科技大學)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>143944</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3,240</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 臺南市 </t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/04 12:00:00</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/04</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>112/03/18</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143944</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Python大數據資料分析統計應用實務班第02期  (財團法人成大研究發展基金會)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>143982</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1,750</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7,000</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺南市 (術) 臺南市 </t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/04 12:00:00</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/01 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/04</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>112/04/15</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143982</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>雲端系統實務班  (國立臺北商業大學)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>143598</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1,520</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6,080</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 臺北市 </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/05 12:00:00</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/02 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/05</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>112/04/23</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143598</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3D列印珠寶建模設計班第01期  (社團法人中華民國珠寶金飾研究會)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>143803</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2,284</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9,136</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺南市 (術) 臺南市 </t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/07/14 12:00:00</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/02 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/05</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>112/04/23</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143803</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>物聯網智慧行銷分析應用班第01期  (社團法人高雄市夢想城市發展協會)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>143853</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1,568</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6,272</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 高雄市 (術) 高雄市 (整班為遠距教學) </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/07/27 12:00:00</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/02 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>接受以備取身份報名</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/05</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>112/04/23</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143853</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>智慧行銷分析應用班第01期  (社團法人中華成人教育認證協會)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>143893</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1,568</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6,272</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺南市 (術) 臺南市 (整班為實體教學) </t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/09/16 12:00:00</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/02 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/05</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>112/04/23</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143893</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>影像辨識系統班第01期  (北訓資訊有限公司附設職業訓練中心)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>143822</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1,818</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7,272</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 臺南市 (術) 臺南市 </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/07 12:00:00</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/04 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/07</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>112/04/27</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143822</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>綠能科技太陽能光電技能B班第05期  (社團法人台灣多元訓練推廣協會)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>143857</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1,916</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7,664</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 嘉義市 (術) 嘉義市 </t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/11/03 12:00:00</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/08 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/11</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>112/04/29</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143857</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>人機介面HMI基礎應用技術培訓班第03期  (國立雲林科技大學)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>143786</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>3,288</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>13,152</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 雲林縣 </t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/12 12:00:00</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/09 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/12</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>112/04/16</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143786</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>智慧機械-Inventor智能機械參數設計人才培訓班第01期  (社團法人新竹市職訓教育協會)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>143927</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1,620</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6,480</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(術) 新竹市 (整班為遠距教學) </t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+111/08/15 12:00:00</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/12 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>招生中</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/15</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>112/04/21</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=143927</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>建築資訊模型機電(MEP)進階學士學分班第01期  (國立高雄科技大學)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>144007</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>1,600</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>6,400</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>(學) 高雄市
-(術) 高雄市</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>111/11/24 12:00:00
-|
-111/12/28 18:00:00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>接受以備取身份報名</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>111/12/31
-|
-112/03/11</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>報名時應先繳全額訓練費用</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=144006</t>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(學) 高雄市 (術) 高雄市 </t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/02/16 12:00:00</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112/03/15 18:00:00            </t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>尚未開始招生</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+112/03/18</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>112/04/29</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>報名時應先繳全額訓練費用</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>https://ojt.wda.gov.tw/ClassSearch/Detail?PlanType=1&amp;OCID=144007</t>
         </is>
       </c>
     </row>
